--- a/Mifos Automation Excels/Client/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>save</t>
   </si>
   <si>
-    <t>4480-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN</t>
-  </si>
-  <si>
     <t>Loanofficer</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Head Office</t>
+  </si>
+  <si>
+    <t>4480-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN-1st</t>
   </si>
 </sst>
 </file>
@@ -468,14 +468,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="55.875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,15 +491,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,27 +535,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>42013</v>
@@ -563,18 +563,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -593,15 +593,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
